--- a/db-schema.xlsx
+++ b/db-schema.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
